--- a/data_year/zb/批发和零售业/连锁零售企业/按行业分连锁零售企业零售营业面积.xlsx
+++ b/data_year/zb/批发和零售业/连锁零售企业/按行业分连锁零售企业零售营业面积.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,545 +483,409 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>82.7539</v>
+        <v>69.3</v>
       </c>
       <c r="C2" t="n">
-        <v>188.1808</v>
+        <v>348.7</v>
       </c>
       <c r="D2" t="n">
-        <v>451.2786</v>
+        <v>759.9</v>
       </c>
       <c r="E2" t="n">
-        <v>98.05840000000001</v>
+        <v>162.9</v>
       </c>
       <c r="F2" t="n">
-        <v>5.4962</v>
+        <v>7.1</v>
       </c>
       <c r="G2" t="n">
-        <v>1869.6346</v>
+        <v>2751.8</v>
       </c>
       <c r="H2" t="n">
-        <v>56.5443</v>
+        <v>127.8</v>
       </c>
       <c r="I2" t="n">
-        <v>3053.1328</v>
+        <v>5969.5</v>
       </c>
       <c r="J2" t="n">
-        <v>38.1966</v>
+        <v>49.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>85.8793</v>
+        <v>68.9834</v>
       </c>
       <c r="C3" t="n">
-        <v>216.802</v>
+        <v>397.6935</v>
       </c>
       <c r="D3" t="n">
-        <v>605.3613</v>
+        <v>1529.507</v>
       </c>
       <c r="E3" t="n">
-        <v>79.48739999999999</v>
+        <v>105.7879</v>
       </c>
       <c r="F3" t="n">
-        <v>0.578</v>
+        <v>6.0549</v>
       </c>
       <c r="G3" t="n">
-        <v>921.9521</v>
+        <v>1692.3154</v>
       </c>
       <c r="H3" t="n">
-        <v>70.57940000000001</v>
+        <v>152.3273</v>
       </c>
       <c r="I3" t="n">
-        <v>3551.8981</v>
+        <v>6080.0718</v>
       </c>
       <c r="J3" t="n">
-        <v>46.9115</v>
+        <v>51.0592</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>83.92619999999999</v>
+        <v>35.4994</v>
       </c>
       <c r="C4" t="n">
-        <v>287.5537</v>
+        <v>436.6151</v>
       </c>
       <c r="D4" t="n">
-        <v>636.4518</v>
+        <v>1491.9215</v>
       </c>
       <c r="E4" t="n">
-        <v>82.8308</v>
+        <v>104.2059</v>
       </c>
       <c r="F4" t="n">
-        <v>1.4848</v>
+        <v>2.0403</v>
       </c>
       <c r="G4" t="n">
-        <v>700.7464</v>
+        <v>1849.1686</v>
       </c>
       <c r="H4" t="n">
-        <v>85.712</v>
+        <v>147.6895</v>
       </c>
       <c r="I4" t="n">
-        <v>3915.3362</v>
+        <v>6592.9987</v>
       </c>
       <c r="J4" t="n">
-        <v>44.9391</v>
+        <v>58.6686</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>116.9644</v>
+        <v>46.7511</v>
       </c>
       <c r="C5" t="n">
-        <v>344.6122</v>
+        <v>490.6441</v>
       </c>
       <c r="D5" t="n">
-        <v>962.6095</v>
+        <v>1496.9202</v>
       </c>
       <c r="E5" t="n">
-        <v>86.0372</v>
+        <v>98.8976</v>
       </c>
       <c r="F5" t="n">
-        <v>2.1984</v>
+        <v>2.8786</v>
       </c>
       <c r="G5" t="n">
-        <v>720.6587</v>
+        <v>1961.0083</v>
       </c>
       <c r="H5" t="n">
-        <v>102.3833</v>
+        <v>223.6516</v>
       </c>
       <c r="I5" t="n">
-        <v>4568.4637</v>
+        <v>7178.616</v>
       </c>
       <c r="J5" t="n">
-        <v>49.5643</v>
+        <v>71.1474</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>93.6416</v>
+        <v>49.4706</v>
       </c>
       <c r="C6" t="n">
-        <v>335.8166</v>
+        <v>527.1271</v>
       </c>
       <c r="D6" t="n">
-        <v>667.7518</v>
+        <v>1509.3985</v>
       </c>
       <c r="E6" t="n">
-        <v>148.0621</v>
+        <v>107.9747</v>
       </c>
       <c r="F6" t="n">
-        <v>38.1689</v>
+        <v>2.1371</v>
       </c>
       <c r="G6" t="n">
-        <v>2211.6075</v>
+        <v>2091.164</v>
       </c>
       <c r="H6" t="n">
-        <v>92.5836</v>
+        <v>254.6266</v>
       </c>
       <c r="I6" t="n">
-        <v>5670.7417</v>
+        <v>7364.2143</v>
       </c>
       <c r="J6" t="n">
-        <v>78.8536</v>
+        <v>71.5317</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>69.3</v>
+        <v>35.1862</v>
       </c>
       <c r="C7" t="n">
-        <v>348.7</v>
+        <v>566.3489</v>
       </c>
       <c r="D7" t="n">
-        <v>759.9</v>
+        <v>1479.4753</v>
       </c>
       <c r="E7" t="n">
-        <v>162.9</v>
+        <v>116.0769</v>
       </c>
       <c r="F7" t="n">
-        <v>7.1</v>
+        <v>5.4388</v>
       </c>
       <c r="G7" t="n">
-        <v>2751.8</v>
+        <v>2075.897</v>
       </c>
       <c r="H7" t="n">
-        <v>127.8</v>
+        <v>282.6318</v>
       </c>
       <c r="I7" t="n">
-        <v>5969.5</v>
+        <v>7774.2392</v>
       </c>
       <c r="J7" t="n">
-        <v>49.2</v>
+        <v>82.3419</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>68.9834</v>
+        <v>40.257</v>
       </c>
       <c r="C8" t="n">
-        <v>397.6935</v>
+        <v>680.1111</v>
       </c>
       <c r="D8" t="n">
-        <v>1529.507</v>
+        <v>1499.428</v>
       </c>
       <c r="E8" t="n">
-        <v>105.7879</v>
+        <v>123.4253</v>
       </c>
       <c r="F8" t="n">
-        <v>6.0549</v>
+        <v>5.8376</v>
       </c>
       <c r="G8" t="n">
-        <v>1692.3154</v>
+        <v>2001.5175</v>
       </c>
       <c r="H8" t="n">
-        <v>152.3273</v>
+        <v>253.2697</v>
       </c>
       <c r="I8" t="n">
-        <v>6080.0718</v>
+        <v>8772.5524</v>
       </c>
       <c r="J8" t="n">
-        <v>51.0592</v>
+        <v>109.3006</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>35.4994</v>
+        <v>46.9889</v>
       </c>
       <c r="C9" t="n">
-        <v>436.6151</v>
+        <v>937.4974</v>
       </c>
       <c r="D9" t="n">
-        <v>1491.9215</v>
+        <v>1291.2462</v>
       </c>
       <c r="E9" t="n">
-        <v>104.2059</v>
+        <v>128.6261</v>
       </c>
       <c r="F9" t="n">
-        <v>2.0403</v>
+        <v>12.3219</v>
       </c>
       <c r="G9" t="n">
-        <v>1849.1686</v>
+        <v>2483.9748</v>
       </c>
       <c r="H9" t="n">
-        <v>147.6895</v>
+        <v>297.6264</v>
       </c>
       <c r="I9" t="n">
-        <v>6592.9987</v>
+        <v>8965.061400000001</v>
       </c>
       <c r="J9" t="n">
-        <v>58.6686</v>
+        <v>126.3245</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>46.7511</v>
+        <v>51.2949</v>
       </c>
       <c r="C10" t="n">
-        <v>490.6441</v>
+        <v>903.9567</v>
       </c>
       <c r="D10" t="n">
-        <v>1496.9202</v>
+        <v>1424.1052</v>
       </c>
       <c r="E10" t="n">
-        <v>98.8976</v>
+        <v>174.7671</v>
       </c>
       <c r="F10" t="n">
-        <v>2.8786</v>
+        <v>12.7877</v>
       </c>
       <c r="G10" t="n">
-        <v>1961.0083</v>
+        <v>2979.9488</v>
       </c>
       <c r="H10" t="n">
-        <v>223.6516</v>
+        <v>399.2091</v>
       </c>
       <c r="I10" t="n">
-        <v>7178.616</v>
+        <v>8715.529500000001</v>
       </c>
       <c r="J10" t="n">
-        <v>71.1474</v>
+        <v>144.2525</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>49.4706</v>
+        <v>55.1468</v>
       </c>
       <c r="C11" t="n">
-        <v>527.1271</v>
+        <v>946.0354</v>
       </c>
       <c r="D11" t="n">
-        <v>1509.3985</v>
+        <v>861.4103</v>
       </c>
       <c r="E11" t="n">
-        <v>107.9747</v>
+        <v>184.1878</v>
       </c>
       <c r="F11" t="n">
-        <v>2.1371</v>
+        <v>12.6284</v>
       </c>
       <c r="G11" t="n">
-        <v>2091.164</v>
+        <v>3438.3252</v>
       </c>
       <c r="H11" t="n">
-        <v>254.6266</v>
+        <v>427.7082</v>
       </c>
       <c r="I11" t="n">
-        <v>7364.2143</v>
+        <v>9145.3362</v>
       </c>
       <c r="J11" t="n">
-        <v>71.5317</v>
+        <v>129.0562</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>35.1862</v>
+        <v>58.4192</v>
       </c>
       <c r="C12" t="n">
-        <v>566.3489</v>
+        <v>1127.1612</v>
       </c>
       <c r="D12" t="n">
-        <v>1479.4753</v>
+        <v>745.6909000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>116.0769</v>
+        <v>195.9276</v>
       </c>
       <c r="F12" t="n">
-        <v>5.4388</v>
+        <v>11.6159</v>
       </c>
       <c r="G12" t="n">
-        <v>2075.897</v>
+        <v>3756.3769</v>
       </c>
       <c r="H12" t="n">
-        <v>282.6318</v>
+        <v>425.5045</v>
       </c>
       <c r="I12" t="n">
-        <v>7774.2392</v>
+        <v>9109.947</v>
       </c>
       <c r="J12" t="n">
-        <v>82.3419</v>
+        <v>84.8794</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>40.257</v>
+        <v>59.2427</v>
       </c>
       <c r="C13" t="n">
-        <v>680.1111</v>
+        <v>1343.2619</v>
       </c>
       <c r="D13" t="n">
-        <v>1499.428</v>
+        <v>894.5577</v>
       </c>
       <c r="E13" t="n">
-        <v>123.4253</v>
+        <v>216.9023</v>
       </c>
       <c r="F13" t="n">
-        <v>5.8376</v>
+        <v>7.0403</v>
       </c>
       <c r="G13" t="n">
-        <v>2001.5175</v>
+        <v>3492.1064</v>
       </c>
       <c r="H13" t="n">
-        <v>253.2697</v>
+        <v>521.9019</v>
       </c>
       <c r="I13" t="n">
-        <v>8772.5524</v>
+        <v>8901.990299999999</v>
       </c>
       <c r="J13" t="n">
-        <v>109.3006</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>46.9889</v>
-      </c>
-      <c r="C14" t="n">
-        <v>937.4974</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1291.2462</v>
-      </c>
-      <c r="E14" t="n">
-        <v>128.6261</v>
-      </c>
-      <c r="F14" t="n">
-        <v>12.3219</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2483.9748</v>
-      </c>
-      <c r="H14" t="n">
-        <v>297.6264</v>
-      </c>
-      <c r="I14" t="n">
-        <v>8965.061400000001</v>
-      </c>
-      <c r="J14" t="n">
-        <v>126.3245</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>51.2949</v>
-      </c>
-      <c r="C15" t="n">
-        <v>903.9567</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1424.1052</v>
-      </c>
-      <c r="E15" t="n">
-        <v>174.7671</v>
-      </c>
-      <c r="F15" t="n">
-        <v>12.7877</v>
-      </c>
-      <c r="G15" t="n">
-        <v>2979.9488</v>
-      </c>
-      <c r="H15" t="n">
-        <v>399.2091</v>
-      </c>
-      <c r="I15" t="n">
-        <v>8715.529500000001</v>
-      </c>
-      <c r="J15" t="n">
-        <v>144.2525</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>55.1468</v>
-      </c>
-      <c r="C16" t="n">
-        <v>946.0354</v>
-      </c>
-      <c r="D16" t="n">
-        <v>861.4103</v>
-      </c>
-      <c r="E16" t="n">
-        <v>184.1878</v>
-      </c>
-      <c r="F16" t="n">
-        <v>12.6284</v>
-      </c>
-      <c r="G16" t="n">
-        <v>3438.3252</v>
-      </c>
-      <c r="H16" t="n">
-        <v>427.7082</v>
-      </c>
-      <c r="I16" t="n">
-        <v>9145.3362</v>
-      </c>
-      <c r="J16" t="n">
-        <v>129.0562</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>58.4192</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1127.1612</v>
-      </c>
-      <c r="D17" t="n">
-        <v>745.6909000000001</v>
-      </c>
-      <c r="E17" t="n">
-        <v>195.9276</v>
-      </c>
-      <c r="F17" t="n">
-        <v>11.6159</v>
-      </c>
-      <c r="G17" t="n">
-        <v>3756.3769</v>
-      </c>
-      <c r="H17" t="n">
-        <v>425.5045</v>
-      </c>
-      <c r="I17" t="n">
-        <v>9109.947</v>
-      </c>
-      <c r="J17" t="n">
-        <v>84.8794</v>
+        <v>105.3572</v>
       </c>
     </row>
   </sheetData>
